--- a/include/template/excel/format_import_siswa.xlsx
+++ b/include/template/excel/format_import_siswa.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\edulite\include\template\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E287C38-950D-447F-8F93-6C605172AB6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="19875" windowHeight="8235"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>TAHUN PELAJARAN 2020/2021</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SMK IT ASY-SYADZILI</t>
   </si>
@@ -30,32 +33,35 @@
     <t>NAMA</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">UID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(JANGAN DIUBAH)</t>
-    </r>
-  </si>
-  <si>
     <t>IMPORT DATA SISWA</t>
   </si>
   <si>
     <t>NIS</t>
   </si>
+  <si>
+    <t>NISN</t>
+  </si>
+  <si>
+    <t>AGAMA</t>
+  </si>
+  <si>
+    <t>TEMPAT LAHIR</t>
+  </si>
+  <si>
+    <t>NO IJAZAH</t>
+  </si>
+  <si>
+    <t>TANGGAL LAHIR</t>
+  </si>
+  <si>
+    <t>Kolom dengan tanda merah jangan diubah</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +91,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -104,21 +103,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -133,110 +126,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -350,6 +239,74 @@
       </top>
       <bottom style="double">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -366,84 +323,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,6 +407,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -462,20 +418,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -502,8 +464,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5676899" cy="933450"/>
+          <a:off x="1447800" y="9525"/>
+          <a:ext cx="6029325" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,7 +520,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,9 +553,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,6 +605,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,11 +797,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -814,379 +810,534 @@
     <col min="2" max="2" width="36.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="5.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="E11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>6</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
-        <v>2</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>3</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>4</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>5</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>6</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>8</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>9</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>10</v>
       </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>11</v>
+      </c>
       <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
-        <v>11</v>
-      </c>
-      <c r="B24" s="17"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>12</v>
+      </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
-        <v>12</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>13</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="B25" s="11"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>14</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>15</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
         <v>16</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <v>17</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
         <v>18</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
         <v>19</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
         <v>20</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <v>21</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
         <v>22</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
         <v>23</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
         <v>24</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
         <v>25</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
         <v>26</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <v>27</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
         <v>28</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <v>29</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
         <v>30</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <v>31</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
         <v>32</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
         <v>33</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-    </row>
-    <row r="47" spans="1:4" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
         <v>34</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-    </row>
-    <row r="48" spans="1:4" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
         <v>35</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="16"/>
-    </row>
-    <row r="49" spans="3:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1194,31 +1345,28 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
+  <mergeCells count="11">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1230,7 +1378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/include/template/excel/format_import_siswa.xlsx
+++ b/include/template/excel/format_import_siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\edulite\include\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E287C38-950D-447F-8F93-6C605172AB6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A59ED9-23E4-4A95-9458-0109C03EEFDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SMK IT ASY-SYADZILI</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Kolom dengan tanda merah jangan diubah</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin (L/P)</t>
   </si>
 </sst>
 </file>
@@ -362,41 +365,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:H49"/>
+  <dimension ref="A5:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -814,103 +817,108 @@
     <col min="6" max="6" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="26" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -921,8 +929,9 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -933,8 +942,9 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -945,8 +955,9 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>4</v>
       </c>
@@ -957,8 +968,9 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>5</v>
       </c>
@@ -969,8 +981,9 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>6</v>
       </c>
@@ -981,8 +994,9 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>7</v>
       </c>
@@ -993,8 +1007,9 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>8</v>
       </c>
@@ -1005,8 +1020,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -1017,8 +1033,9 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>10</v>
       </c>
@@ -1029,8 +1046,9 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>11</v>
       </c>
@@ -1041,8 +1059,9 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>12</v>
       </c>
@@ -1053,8 +1072,9 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>13</v>
       </c>
@@ -1065,8 +1085,9 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>14</v>
       </c>
@@ -1077,8 +1098,9 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>15</v>
       </c>
@@ -1089,8 +1111,9 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>16</v>
       </c>
@@ -1101,8 +1124,9 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>17</v>
       </c>
@@ -1112,8 +1136,9 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>18</v>
       </c>
@@ -1124,8 +1149,9 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>19</v>
       </c>
@@ -1136,8 +1162,9 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>20</v>
       </c>
@@ -1148,8 +1175,9 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>21</v>
       </c>
@@ -1160,8 +1188,9 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>22</v>
       </c>
@@ -1172,8 +1201,9 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>23</v>
       </c>
@@ -1184,8 +1214,9 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>24</v>
       </c>
@@ -1196,8 +1227,9 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>25</v>
       </c>
@@ -1208,8 +1240,9 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>26</v>
       </c>
@@ -1220,8 +1253,9 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>27</v>
       </c>
@@ -1232,8 +1266,9 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>28</v>
       </c>
@@ -1244,8 +1279,9 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>29</v>
       </c>
@@ -1256,8 +1292,9 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>30</v>
       </c>
@@ -1268,8 +1305,9 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>31</v>
       </c>
@@ -1280,8 +1318,9 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>32</v>
       </c>
@@ -1292,8 +1331,9 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>33</v>
       </c>
@@ -1304,8 +1344,9 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>34</v>
       </c>
@@ -1316,8 +1357,9 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>35</v>
       </c>
@@ -1328,8 +1370,9 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1346,7 +1389,8 @@
       <c r="H49" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A11:A12"/>
